--- a/DMSNewVSale_2025-12-24_15-15.xlsx
+++ b/DMSNewVSale_2025-12-24_15-15.xlsx
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>51.0000</t>
+  </si>
+  <si>
+    <t>ZOVIRAX 5% TOPICAL CREAM 10 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -2096,7 +2108,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2123,7 +2135,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2133,11 +2145,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>15</v>
@@ -2149,14 +2161,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2166,11 +2178,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>15</v>
@@ -2189,7 +2201,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2199,14 +2211,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2232,14 +2244,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2248,7 +2260,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2265,11 +2277,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>15</v>
@@ -2281,14 +2293,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2308,41 +2320,74 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" ht="25.5" customHeight="1">
-      <c r="N45" s="13">
-        <v>1949.915</v>
-      </c>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>135</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>136</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>57</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>137</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" ht="26.25" customHeight="1">
+      <c r="N46" s="13">
+        <v>1976.915</v>
+      </c>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>139</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>140</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>141</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2541,10 +2586,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
